--- a/Track_Chart.xlsx
+++ b/Track_Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>LC#969</t>
+  </si>
+  <si>
+    <t>Longest Univalue Path</t>
+  </si>
+  <si>
+    <t>LC#687</t>
   </si>
 </sst>
 </file>
@@ -505,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +556,7 @@
       </c>
       <c r="I1" s="1">
         <f>SUM(D:D)</f>
-        <v>325</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -577,7 +583,7 @@
       </c>
       <c r="I2" s="1">
         <f>COUNTA(A:A)-1</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -818,6 +824,26 @@
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2">
+        <v>43669</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Track_Chart.xlsx
+++ b/Track_Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -138,6 +138,36 @@
   </si>
   <si>
     <t>LC#687</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Minimum Distance Between BST Nodes</t>
+  </si>
+  <si>
+    <t>LC#783</t>
+  </si>
+  <si>
+    <t>Partition to K Equal Sum Subsets</t>
+  </si>
+  <si>
+    <t>LC#698</t>
+  </si>
+  <si>
+    <t>Do it again while learning backtracking, See DP approach also</t>
+  </si>
+  <si>
+    <t>Third Maximum Number</t>
+  </si>
+  <si>
+    <t>LC#414</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Do it again while learning HEAPS</t>
+  </si>
+  <si>
+    <t>Do it again while doing trees</t>
   </si>
 </sst>
 </file>
@@ -511,20 +541,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="56.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.5546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="19.109375" style="1" customWidth="1"/>
@@ -556,7 +587,7 @@
       </c>
       <c r="I1" s="1">
         <f>SUM(D:D)</f>
-        <v>350</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -583,7 +614,7 @@
       </c>
       <c r="I2" s="1">
         <f>COUNTA(A:A)-1</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -844,6 +875,78 @@
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43670</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43672</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2">
+        <v>43679</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
